--- a/programmation_web.xlsx
+++ b/programmation_web.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+  <si>
+    <t>matricule</t>
+  </si>
   <si>
     <t>nom</t>
   </si>
@@ -36,30 +39,712 @@
     <t>note_presence</t>
   </si>
   <si>
-    <t>kenfack</t>
+    <t>21P156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABADA TOUNOUKEU GEORGES A.</t>
+  </si>
+  <si>
+    <t>23P756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABAKAR DJIBRILA </t>
+  </si>
+  <si>
+    <t>21P356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADA BALLA RENEE-FRANCINE</t>
+  </si>
+  <si>
+    <t>20P200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKOA NKENGUE</t>
+  </si>
+  <si>
+    <t>23P750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTOINE EMMANUEL ESSOMBA ESSOMBA</t>
+  </si>
+  <si>
+    <t>23P781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATABONG EFON STEPHANE FRITZ </t>
+  </si>
+  <si>
+    <t>20P119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYE DAVID LEDOUX</t>
+  </si>
+  <si>
+    <t>21P233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BADA RODOLPHE ANDRÉ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAKOTCHA KAMTCHE LOIC</t>
+  </si>
+  <si>
+    <t>21P301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEKONO BINDUGA FLORIAN D.</t>
+  </si>
+  <si>
+    <t>21P091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENGONO AMVELA NATHAN</t>
+  </si>
+  <si>
+    <t>20P286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIHAY RAPHAEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIYA BI MVONDO PAUL KIMBERLY  ROBLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONY NANTCHOP FRANK STEVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOUIYIODA JOSEPH</t>
+  </si>
+  <si>
+    <t>21P033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CESSU CHOUMESSI MAXIME</t>
+  </si>
+  <si>
+    <t>21P344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHLOE KABEYENE TOUALE KERONNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANGA PATCHOUM BLONDE</t>
+  </si>
+  <si>
+    <t>21P038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJOKO DJODOM SYNTIA LOANA </t>
+  </si>
+  <si>
+    <t>21P360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJONGO FOKOU ARIEL SHARON</t>
+  </si>
+  <si>
+    <t>21P287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJOUNKENG NGUEFACK ELEONOR</t>
+  </si>
+  <si>
+    <t>21P103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOEN DONGUE DAVIS</t>
+  </si>
+  <si>
+    <t>21P107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONCHI TRÉSOR LEROY</t>
+  </si>
+  <si>
+    <t>21P266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONKENG HUSSEL</t>
+  </si>
+  <si>
+    <t>20P512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DZANGUEU DJOUDA WESNIL BRIYONE</t>
+  </si>
+  <si>
+    <t>21P124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMBOLO AMBASSA FAUSTIN ULRICH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMBOLO MBANG AARON TEDDY</t>
+  </si>
+  <si>
+    <t>21P068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENYEGUE BAVOUA FREDY</t>
+  </si>
+  <si>
+    <t>20P180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVOZE NNAKANE MARIO-DAREL</t>
+  </si>
+  <si>
+    <t>17P118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EYADI BEKOE BLANCHE DOMINIQUE</t>
+  </si>
+  <si>
+    <t>21P290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEUTSOP NGOUANE MARY P.</t>
+  </si>
+  <si>
+    <t>23P751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEZEU YOUNDJE FREDY CLINTON</t>
+  </si>
+  <si>
+    <t>21P040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FODOUOP FOGUE WILFRIED</t>
+  </si>
+  <si>
+    <t>21P011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOLONG TAFOUKEU ZIDANE</t>
+  </si>
+  <si>
+    <t>21P021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOMEKONG TAMDJI JONATHAN B.</t>
+  </si>
+  <si>
+    <t>21P398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOMETHE SOBMBANANG MAXIMILIEN</t>
+  </si>
+  <si>
+    <t>21P023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOTEDOU BILL JUNIOR</t>
+  </si>
+  <si>
+    <t>21P188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HASSANA ZOUHEIRIYYA MOHAMADOU</t>
+  </si>
+  <si>
+    <t>21P152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBON DICKA MOUSSI</t>
+  </si>
+  <si>
+    <t>21P254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMDEM POUOKAM IVANN HAROLD</t>
+  </si>
+  <si>
+    <t>21P308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMGA CHEUKO FRANKLIN DAVY</t>
+  </si>
+  <si>
+    <t>21P017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMTE MOAFO AMSTRONG</t>
+  </si>
+  <si>
+    <t>21P335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGNE ORIANE ELVIRA</t>
+  </si>
+  <si>
+    <t>21P027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KENFACK NOUMEDEM FRANCK ULRICH</t>
+  </si>
+  <si>
+    <t>23P754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KENGALI FEGUE PACÔME</t>
+  </si>
+  <si>
+    <t>21P127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KENGNE TUEGUEM FRESNEL GRÂCE</t>
+  </si>
+  <si>
+    <t>23P752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOGHENE LADZOU ERIC </t>
+  </si>
+  <si>
+    <t>21P039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOMGUEM OUANDI ISIS HELCIAS</t>
+  </si>
+  <si>
+    <t>21P082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOUASSI DE YOBO GILBERT BRYAN</t>
+  </si>
+  <si>
+    <t>21P190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOUDJOU TIEMIGNI VICRAND A.</t>
+  </si>
+  <si>
+    <t>21P130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUATE KAMGA BRAYAN ARMEL</t>
+  </si>
+  <si>
+    <t>21P296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADO SAHA</t>
+  </si>
+  <si>
+    <t>20P231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAFRIC SHAGGY AKONO</t>
+  </si>
+  <si>
+    <t>21P187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEMOBENG NGOUANE BELVIANE </t>
+  </si>
+  <si>
+    <t>17P025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONTSI TAMEKENG GABIN</t>
+  </si>
+  <si>
+    <t>21P272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAFFO FONKOU NATACHA BRENDA</t>
+  </si>
+  <si>
+    <t>22P137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAFOSSO BOGNI ORNELLA RAISSA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAMIA WOUNGLY MIKAEL JOCELYN</t>
+  </si>
+  <si>
+    <t>21P340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBASSI EWOLO LOIC ARON</t>
+  </si>
+  <si>
+    <t>21P118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBELINPA BAMI YANN</t>
+  </si>
+  <si>
+    <t>21P110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBEUYO BEUFU AUDREY SANDRA</t>
+  </si>
+  <si>
+    <t>21P341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBEYA NDONGO JOEL HYACEINTHE </t>
+  </si>
+  <si>
+    <t>23P770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBIAMY NGAMENI STEVEN LOIC</t>
+  </si>
+  <si>
+    <t>21P269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBOCK JEAN DANIEL</t>
+  </si>
+  <si>
+    <t>21P072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBOGNENG TETSIEBOU JUNIOR</t>
+  </si>
+  <si>
+    <t>17P143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDJO EYEZO'O HELVADOR BENJAMIN</t>
+  </si>
+  <si>
+    <t>21P369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEKIAGE OLIVIER</t>
+  </si>
+  <si>
+    <t>21P093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENGOSSO MESSELE M’EBOUTOU NICOLAS JORIS ADRIEN</t>
+  </si>
+  <si>
+    <t>21P246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOGOU IGOR GREEN</t>
+  </si>
+  <si>
+    <t>21P128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOMBO-DINGBA EMMANUEL</t>
+  </si>
+  <si>
+    <t>19P162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOUKOKO MOUNGOLE ENZO RAHAN CHARLES ELOI</t>
+  </si>
+  <si>
+    <t>21P114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOUSSINGA NDOUMBE FRANCOIS</t>
+  </si>
+  <si>
+    <t>21P274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NANDA WANDA </t>
+  </si>
+  <si>
+    <t>21P174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NANFAH ELSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEGOUM WOUATEDEM YVES ARTHUR</t>
+  </si>
+  <si>
+    <t>21P014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGAH NDONGO ESTELLE C.</t>
+  </si>
+  <si>
+    <t>21P012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGANTA YATCHOUA ANGE P.</t>
+  </si>
+  <si>
+    <t>21P049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGEUKEU MELI AUDAIN</t>
+  </si>
+  <si>
+    <t>23P755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGHADEU NGUEKO SERGE PATRICK</t>
+  </si>
+  <si>
+    <t>21P279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGHOGUE TAPTUE FRANCK R.</t>
+  </si>
+  <si>
+    <t>21P089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGO BASSOM ANNE ROSALIE</t>
+  </si>
+  <si>
+    <t>21P336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGOM CHRISTINE CARELLE ANGE</t>
+  </si>
+  <si>
+    <t>21P086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGOUPAYE DJIO THIERRY</t>
+  </si>
+  <si>
+    <t>23P780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUEPSSI KEMMEGNI AUREL BRAYANNE</t>
+  </si>
+  <si>
+    <t>23P778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUETCHO BIADOU CHLOÉ GABRIELLE</t>
+  </si>
+  <si>
+    <t>21P373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUIFFO NGAKOU RICK VARNEL</t>
+  </si>
+  <si>
+    <t>21P070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NJIOCKOU HAIRBEL CALVINO </t>
+  </si>
+  <si>
+    <t>19P070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NKOTO NTYAM ULRICH HENRI</t>
+  </si>
+  <si>
+    <t>21P262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NKOUATHIO KEMNHOU GURVAN R.</t>
+  </si>
+  <si>
+    <t>23P753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOMO BODIANGA GABRIEL NASAIRE JUNIOR</t>
+  </si>
+  <si>
+    <t>21P284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOUKOUA TATMFO MAEVA SANDY</t>
+  </si>
+  <si>
+    <t>21P318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOUNDJEU NOUBISSIE FRANCK T.</t>
+  </si>
+  <si>
+    <t>21P223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTYE EBO'O NINA LAISSA</t>
+  </si>
+  <si>
+    <t>21P382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBAMA CLÉMENT 1er</t>
+  </si>
+  <si>
+    <t>23P757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONGUENE JUDITH</t>
+  </si>
+  <si>
+    <t>20P151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONGUENE NKO YVAN SIMON</t>
+  </si>
+  <si>
+    <t>19P050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVAH THIERRY NARCISSE</t>
+  </si>
+  <si>
+    <t>20P239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHEY CYRILLE NJETA</t>
+  </si>
+  <si>
+    <t>21P275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIBEFEU CHIMBA EMMANUEL C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMO ALAN SOREL</t>
+  </si>
+  <si>
+    <t>21P172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMO TCHIMCHUA LINE C.</t>
+  </si>
+  <si>
+    <t>21P050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINGHE PENKA HENDRIX DONAVAN</t>
+  </si>
+  <si>
+    <t>21P034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLEFACK TEMGOUA JUDICAEL KROS</t>
+  </si>
+  <si>
+    <t>23P797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEVE ULRICH FOTSEU TAMO</t>
+  </si>
+  <si>
+    <t>21P073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCHASSI DANIEL</t>
+  </si>
+  <si>
+    <t>23P760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIEUGUIM JOFACK PAVEL</t>
+  </si>
+  <si>
+    <t>21P061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSAMO KUEFACK FLORETTE M.</t>
+  </si>
+  <si>
+    <t>21P003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSOGO ABEGA MARC JASON</t>
+  </si>
+  <si>
+    <t>21P018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VUIDE OUENDEU FRANCK JORDAN</t>
+  </si>
+  <si>
+    <t>21P278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WADOH TCHINDA PAVEL DIOR</t>
+  </si>
+  <si>
+    <t>21P030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WANDJI EMMANUEL JUNIOR</t>
+  </si>
+  <si>
+    <t>21P081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WATCHO NKOANKE WILLY BERLUS</t>
+  </si>
+  <si>
+    <t>21P228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WOTCHOKO NGATCHEU YOHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YIMBOU THEDOM</t>
+  </si>
+  <si>
+    <t>21P240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOMBA MERVEILLE ROSE</t>
+  </si>
+  <si>
+    <t>21P339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZEMENDOUGA YANNICK JOSEPH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -67,16 +752,40 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,14 +1300,15 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="14.140625"/>
-    <col customWidth="1" min="2" max="3" width="12.421875"/>
+    <col customWidth="1" min="2" max="2" width="48.28125"/>
+    <col customWidth="1" min="3" max="3" width="12.421875"/>
     <col customWidth="1" min="4" max="4" width="11.57421875"/>
     <col customWidth="1" min="6" max="6" width="11.7109375"/>
     <col customWidth="1" min="7" max="7" width="14.28125"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -619,304 +1329,1002 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1">
-        <v>4</v>
-      </c>
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5</v>
-      </c>
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6</v>
-      </c>
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1">
-        <v>7</v>
-      </c>
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1">
-        <v>8</v>
-      </c>
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1">
-        <v>9</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1">
-        <v>10</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1">
-        <v>11</v>
-      </c>
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1">
-        <v>12</v>
-      </c>
-      <c r="G12" s="1">
-        <v>12</v>
-      </c>
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1">
-        <v>13</v>
-      </c>
-      <c r="G13" s="1">
-        <v>13</v>
-      </c>
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1">
-        <v>14</v>
-      </c>
-      <c r="E14" s="1">
-        <v>14</v>
-      </c>
-      <c r="F14" s="1">
-        <v>14</v>
-      </c>
-      <c r="G14" s="1">
-        <v>14</v>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="A63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="A71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="A72" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="A73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="A74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="A75" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="A76" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="A77" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="A78" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="A79" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="A80" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="A81" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="A82" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="A83" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="A84" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="A85" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25">
+      <c r="A87" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="A88" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="A89" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25">
+      <c r="A90" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25">
+      <c r="A91" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25">
+      <c r="A92" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25">
+      <c r="A93" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25">
+      <c r="A94" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25">
+      <c r="A95" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25">
+      <c r="A96" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25">
+      <c r="A97" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25">
+      <c r="A98" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25">
+      <c r="A99" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25">
+      <c r="A100" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25">
+      <c r="A101" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25">
+      <c r="A102" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25">
+      <c r="A103" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25">
+      <c r="A104" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25">
+      <c r="A105" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25">
+      <c r="A106" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25">
+      <c r="A107" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25">
+      <c r="A108" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25">
+      <c r="A109" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25">
+      <c r="A110" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25">
+      <c r="A111" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25">
+      <c r="A112" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25">
+      <c r="A113" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25">
+      <c r="A114" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25">
+      <c r="A116" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25">
+      <c r="A117" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
